--- a/report.xlsx
+++ b/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Юрий\Desktop\ps-pb-hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA07A5E-7FBA-431F-8293-B37A691CC7ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A927EE-8DB0-4733-89FA-992A56BF744D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Посетители веб-сайта</t>
   </si>
@@ -79,6 +79,27 @@
   </si>
   <si>
     <t>декабрь</t>
+  </si>
+  <si>
+    <t>Яндекс: мобильное приложение</t>
+  </si>
+  <si>
+    <t>Android Browser</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Chrome Mobile</t>
+  </si>
+  <si>
+    <t>Huawei Browser</t>
+  </si>
+  <si>
+    <t>Firefox Mobile</t>
+  </si>
+  <si>
+    <t>MIUI</t>
   </si>
   <si>
     <t>ИТОГО</t>
@@ -1144,7 +1165,7 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1222,121 +1243,317 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1353,13 +1570,13 @@
     </row>
     <row r="16" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -1375,7 +1592,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>
@@ -1532,7 +1749,7 @@
     <row r="26" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -1549,33 +1766,33 @@
     </row>
     <row r="29" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1138,14 +1138,14 @@
   </sheetPr>
   <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col width="42" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
-    <col width="26.09765625" customWidth="1" style="15" min="2" max="2"/>
+    <col width="32.69921875" customWidth="1" style="15" min="2" max="2"/>
     <col width="13" customWidth="1" style="15" min="3" max="4"/>
     <col width="12.69921875" customWidth="1" style="15" min="5" max="14"/>
   </cols>
@@ -1244,28 +1244,28 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>4</v>
+        <v>457</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="G5" s="9" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="H5" s="9" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I5" s="9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5" s="9" t="n">
         <v>0</v>
@@ -1286,32 +1286,32 @@
     <row r="6" ht="37.5" customHeight="1" s="15">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Android Browser</t>
+          <t>Яндекс.Браузер</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>3</v>
+        <v>241</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G6" s="10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J6" s="10" t="n">
         <v>0</v>
@@ -1332,32 +1332,32 @@
     <row r="7" ht="37.5" customHeight="1" s="15">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Opera</t>
+          <t>Chrome Mobile</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D7" s="9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G7" s="9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H7" s="9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I7" s="9" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J7" s="9" t="n">
         <v>0</v>
@@ -1378,32 +1378,32 @@
     <row r="8" ht="37.5" customHeight="1" s="15">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Chrome Mobile</t>
+          <t>Google Chrome</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I8" s="10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J8" s="10" t="n">
         <v>0</v>
@@ -1424,32 +1424,32 @@
     <row r="9" ht="37.5" customHeight="1" s="15">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Huawei Browser</t>
+          <t>Android Browser</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G9" s="9" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H9" s="9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J9" s="9" t="n">
         <v>0</v>
@@ -1470,32 +1470,32 @@
     <row r="10" ht="37.5" customHeight="1" s="15">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Firefox Mobile</t>
+          <t>Mobile Safari</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G10" s="10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" s="10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I10" s="10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J10" s="10" t="n">
         <v>0</v>
@@ -1516,32 +1516,32 @@
     <row r="11" ht="37.5" customHeight="1" s="15">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>MIUI</t>
+          <t>Opera</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E11" s="9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G11" s="9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" s="9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J11" s="9" t="n">
         <v>0</v>
@@ -1669,32 +1669,32 @@
     <row r="19" ht="37.5" customHeight="1" s="15">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный</t>
+          <t>Мешок для обуви G9807 (черный)</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="C19" s="9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D19" s="9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E19" s="9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G19" s="9" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H19" s="9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J19" s="9" t="n">
         <v>0</v>
@@ -1715,32 +1715,32 @@
     <row r="20" ht="37.5" customHeight="1" s="15">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Браслет Xiaomi Mi Band 4 Deep space blue</t>
+          <t>Ещё 2 варианта</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="C20" s="10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E20" s="10" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G20" s="10" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H20" s="10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I20" s="10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J20" s="10" t="n">
         <v>0</v>
@@ -1761,32 +1761,32 @@
     <row r="21" ht="37.5" customHeight="1" s="15">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Обложки универсальные для тетрадей с липким слоем арт.38019</t>
+          <t>Кабель ZMI USB - microUSB (AL600) 1 м черный</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D21" s="9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E21" s="9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G21" s="9" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H21" s="9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I21" s="9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J21" s="9" t="n">
         <v>0</v>
@@ -1807,32 +1807,32 @@
     <row r="22" ht="37.5" customHeight="1" s="15">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>ArtSpace Набор обложек для дневников и тетрадей 208х346 мм</t>
+          <t>ArtSpace Набор обложек для дневников и тетрадей 210х350 мм</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="C22" s="10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E22" s="10" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G22" s="10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H22" s="10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I22" s="10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J22" s="10" t="n">
         <v>0</v>
@@ -1853,32 +1853,32 @@
     <row r="23" ht="37.5" customHeight="1" s="15">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Berlingo Мешок для обуви Challenge (MS09239) черный</t>
+          <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D23" s="9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E23" s="9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G23" s="9" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H23" s="9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I23" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J23" s="9" t="n">
         <v>0</v>
@@ -1899,32 +1899,32 @@
     <row r="24" ht="37.5" customHeight="1" s="15">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Переходник Atcom USB OTG - USB Type-C (АТ4716) 0.1 м черный</t>
+          <t>Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="C24" s="10" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G24" s="10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H24" s="10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I24" s="10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24" s="10" t="n">
         <v>0</v>
@@ -1945,32 +1945,32 @@
     <row r="25" ht="37.5" customHeight="1" s="15">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>ArtSpace Набор обложек для дневников и тетрадей 210x350 мм</t>
+          <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D25" s="9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E25" s="9" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G25" s="9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H25" s="9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I25" s="9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J25" s="9" t="n">
         <v>0</v>
@@ -2029,6 +2029,11 @@
           <t>Самый популярный товар среди мужчин</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Мешок для обуви G9807 (черный)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2036,6 +2041,11 @@
           <t>Самый популярный товар среди женщин</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Мешок для обуви G9807 (черный)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2043,11 +2053,21 @@
           <t>Самый невостребованный товар среди мужчин</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Браслет Xiaomi Mi Band 5 (CN) черный</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
           <t>Самый невостребованный товар среди женщин</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ещё 3 варианта</t>
         </is>
       </c>
     </row>
